--- a/DOCS/WEB601-A2-CRUD-TABLE.xlsx
+++ b/DOCS/WEB601-A2-CRUD-TABLE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\NMIT\WEB601\ws\WEB601-A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\NMIT\WEB601\ws\WEB601-A2\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50AF8C-DC2F-40A3-B85D-7596206D4E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E6B06-13A4-462C-9A71-80607BF4D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>REGISTER</t>
   </si>
@@ -49,7 +49,67 @@
     <t>EDIT ACCOUNT</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE CATEGORY </t>
+    <t xml:space="preserve">SEARCH CATEGORIES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACE ORDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACK ORDER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD CATEGORY </t>
+  </si>
+  <si>
+    <t>ADD PRODUCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVE CATEGORY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVE PRODUCT </t>
+  </si>
+  <si>
+    <t>CATEGORY ID</t>
+  </si>
+  <si>
+    <t>ORDER ID</t>
+  </si>
+  <si>
+    <t>PRODUCT ID</t>
+  </si>
+  <si>
+    <t>TRACKING ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOMER ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME </t>
+  </si>
+  <si>
+    <t>EMAIL ADDRESS</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CART ID</t>
+  </si>
+  <si>
+    <t>SESSION ID</t>
+  </si>
+  <si>
+    <t>CATEGORY DESC</t>
+  </si>
+  <si>
+    <t>PRODUCT DESC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT QUANT </t>
   </si>
 </sst>
 </file>
@@ -105,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -172,21 +232,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -207,21 +252,6 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
@@ -233,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,19 +287,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -278,7 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -839,19 +860,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507DF9F-EDCC-436A-9743-46DC716AB5EA}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="16" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="10" width="9.6328125" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="12" max="17" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -866,7 +890,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -881,7 +905,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -896,7 +920,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -911,7 +935,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -926,7 +950,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -941,43 +965,75 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="11"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="12"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="12" t="s">
+      <c r="D7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="11" t="s">
         <v>0</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
@@ -992,11 +1048,12 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="1"/>
@@ -1011,11 +1068,12 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="15" t="s">
-        <v>3</v>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1"/>
@@ -1030,11 +1088,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="15" t="s">
-        <v>2</v>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1"/>
@@ -1049,11 +1108,12 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="12" t="s">
-        <v>4</v>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1"/>
@@ -1068,10 +1128,13 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="12"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1085,10 +1148,13 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="12"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1102,10 +1168,13 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="12"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1119,10 +1188,13 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="12"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1136,10 +1208,13 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="12"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1153,10 +1228,11 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="12"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="11"/>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1170,10 +1246,11 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="12"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="11"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1187,10 +1264,11 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="12"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="11"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1204,10 +1282,11 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="12"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C22" s="11"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1221,7 +1300,8 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCS/WEB601-A2-CRUD-TABLE.xlsx
+++ b/DOCS/WEB601-A2-CRUD-TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\NMIT\WEB601\ws\WEB601-A2\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E6B06-13A4-462C-9A71-80607BF4D9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1942A8A-AF87-487D-B74E-ACCADDFBDF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>REGISTER</t>
   </si>
@@ -52,12 +52,6 @@
     <t xml:space="preserve">SEARCH CATEGORIES </t>
   </si>
   <si>
-    <t xml:space="preserve">PLACE ORDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACK ORDER </t>
-  </si>
-  <si>
     <t xml:space="preserve">ADD CATEGORY </t>
   </si>
   <si>
@@ -110,6 +104,39 @@
   </si>
   <si>
     <t xml:space="preserve">PRODUCT QUANT </t>
+  </si>
+  <si>
+    <t>SEARCH PRODUCTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACK ORDER/CHECK STATUS </t>
+  </si>
+  <si>
+    <t>ADD PRODUCT TO CART</t>
+  </si>
+  <si>
+    <t>PLACE ORDER/CHECKOUT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
 </sst>
 </file>
@@ -860,19 +887,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507DF9F-EDCC-436A-9743-46DC716AB5EA}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="10" width="9.6328125" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
-    <col min="12" max="17" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" customWidth="1"/>
+    <col min="4" max="18" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -968,46 +992,46 @@
     <row r="7" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C7" s="11"/>
       <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="H7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="J7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="M7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="O7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="14" t="s">
         <v>18</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="R7" s="8"/>
     </row>
@@ -1022,11 +1046,21 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="8"/>
@@ -1042,12 +1076,20 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
     </row>
@@ -1062,11 +1104,21 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
@@ -1082,21 +1134,37 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="K11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1113,10 +1181,14 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1135,8 +1207,12 @@
       <c r="C14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1153,36 +1229,50 @@
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="11" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C16" s="11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1193,14 +1283,22 @@
     </row>
     <row r="17" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
@@ -1213,14 +1311,20 @@
     </row>
     <row r="18" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="1"/>
@@ -1232,13 +1336,21 @@
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
@@ -1250,58 +1362,34 @@
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R20" s="5"/>
-    </row>
-    <row r="21" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="11"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="11"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCS/WEB601-A2-CRUD-TABLE.xlsx
+++ b/DOCS/WEB601-A2-CRUD-TABLE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\NMIT\WEB601\ws\WEB601-A2\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36sli\Desktop\nmit\WEB-601\ws\WEB601-A2\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1942A8A-AF87-487D-B74E-ACCADDFBDF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98429B-01A0-4431-9D6A-7CF416213EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
+    <workbookView xWindow="-15855" yWindow="4665" windowWidth="15855" windowHeight="13815" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,13 +307,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -887,156 +884,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507DF9F-EDCC-436A-9743-46DC716AB5EA}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A5:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="18" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="11"/>
-      <c r="D7" s="13" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8"/>
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="11" t="s">
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
@@ -1063,10 +1000,10 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="11" t="s">
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3"/>
@@ -1093,8 +1030,8 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
@@ -1105,7 +1042,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>29</v>
@@ -1123,8 +1060,8 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="12" t="s">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3"/>
@@ -1155,8 +1092,8 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1179,8 +1116,8 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1203,8 +1140,8 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="11" t="s">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1227,8 +1164,8 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3"/>
@@ -1255,8 +1192,8 @@
       </c>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C16" s="11" t="s">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
@@ -1281,8 +1218,8 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1309,8 +1246,8 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3"/>
@@ -1335,8 +1272,8 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="11" t="s">
+    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="3"/>
@@ -1361,8 +1298,8 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3"/>

--- a/DOCS/WEB601-A2-CRUD-TABLE.xlsx
+++ b/DOCS/WEB601-A2-CRUD-TABLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36sli\Desktop\nmit\WEB-601\ws\WEB601-A2\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98429B-01A0-4431-9D6A-7CF416213EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A20E4-6B3A-4FBD-918E-17BAA16C985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15855" yWindow="4665" windowWidth="15855" windowHeight="13815" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
+    <workbookView xWindow="-15750" yWindow="4635" windowWidth="15855" windowHeight="13815" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>REGISTER</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>CR</t>
+  </si>
+  <si>
+    <t>CATEGORY NAME</t>
   </si>
 </sst>
 </file>
@@ -290,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -324,6 +327,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -884,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507DF9F-EDCC-436A-9743-46DC716AB5EA}">
-  <dimension ref="A5:R20"/>
+  <dimension ref="A5:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +902,7 @@
     <col min="4" max="18" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -911,7 +917,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -926,67 +932,68 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8"/>
       <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="O7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="P7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="Q7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -998,54 +1005,56 @@
       <c r="O8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="Q8" s="1"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="1"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
+      <c r="O9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="1"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
+      <c r="K10" s="1"/>
+      <c r="L10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>29</v>
@@ -1056,26 +1065,27 @@
       <c r="O10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="1"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>30</v>
@@ -1089,244 +1099,266 @@
       <c r="P11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="1"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="1"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="1"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="1"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="1"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="1"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="1"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="1"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOCS/WEB601-A2-CRUD-TABLE.xlsx
+++ b/DOCS/WEB601-A2-CRUD-TABLE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36sli\Desktop\nmit\WEB-601\ws\WEB601-A2\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A20E4-6B3A-4FBD-918E-17BAA16C985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E3491D-4085-4D15-AA28-908F7D62BA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15750" yWindow="4635" windowWidth="15855" windowHeight="13815" xr2:uid="{8AE196B5-F491-4D70-B63D-C3E00D666E66}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>REGISTER</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>CATEGORY NAME</t>
+  </si>
+  <si>
+    <t>CANCEL ORDER</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -289,11 +292,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,6 +345,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +550,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -890,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507DF9F-EDCC-436A-9743-46DC716AB5EA}">
-  <dimension ref="A5:S20"/>
+  <dimension ref="A5:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,18 +1210,18 @@
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="14"/>
       <c r="L15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1215,24 +1235,22 @@
       <c r="R15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="5"/>
+      <c r="S15" s="15"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="3" t="s">
         <v>28</v>
       </c>
@@ -1240,33 +1258,33 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="S16" s="5"/>
     </row>
     <row r="17" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1277,20 +1295,24 @@
     </row>
     <row r="18" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="3"/>
@@ -1304,20 +1326,20 @@
     </row>
     <row r="19" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="3"/>
@@ -1331,7 +1353,7 @@
     </row>
     <row r="20" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1340,25 +1362,52 @@
       <c r="H20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="L20" s="3"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="1" t="s">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="5"/>
+      <c r="S21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
